--- a/testData/TestDataSheet.xlsx
+++ b/testData/TestDataSheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilr2\eclipse-workspace\UCPQ_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6E98FC-789F-40F9-ACBA-38181ED5B5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172D102E-C553-4F58-866C-D84F647FA4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,58 +25,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Website Name</t>
-  </si>
-  <si>
-    <t>Screen_1</t>
-  </si>
-  <si>
-    <t>Screen_2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>test1@mail.com</t>
-  </si>
-  <si>
-    <t>testphone1</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>APPTESTMBOB4@netapp.com</t>
+  </si>
+  <si>
+    <t>SFDC</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Apple Inc.</t>
+  </si>
+  <si>
+    <t>Opportunity Type</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Primary Contact</t>
+  </si>
+  <si>
+    <t>Opprotunity Name</t>
+  </si>
+  <si>
+    <t>Amit Jain</t>
+  </si>
+  <si>
+    <t>Sales Play</t>
+  </si>
+  <si>
+    <t>To be Determined During Qualify Sales Stage</t>
+  </si>
+  <si>
+    <t>Up-sell/Cross-sell</t>
+  </si>
+  <si>
+    <t>Sales Type</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Installed Base Type</t>
+  </si>
+  <si>
+    <t>USD - U.S. Dollar</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Create Opportunity</t>
+  </si>
+  <si>
+    <t>Test Automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +123,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,43 +175,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -177,13 +184,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -467,88 +474,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3046875" customWidth="1"/>
+    <col min="4" max="4" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="mailto:test1@mail.com" xr:uid="{7F620AB1-F0AD-4638-8BB3-A5B74A549A10}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{147F5B5B-A653-4F7A-9371-88FE8BC0D8D7}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{147F5B5B-A653-4F7A-9371-88FE8BC0D8D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
